--- a/xlsx/薩爾瓦多_intext.xlsx
+++ b/xlsx/薩爾瓦多_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="654">
   <si>
     <t>薩爾瓦多</t>
   </si>
@@ -29,7 +29,7 @@
     <t>薩爾瓦多 (消歧義)</t>
   </si>
   <si>
-    <t>政策_政策_美國_薩爾瓦多</t>
+    <t>体育运动_体育运动_足球_薩爾瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%9B%BD%E6%97%97</t>
@@ -450,6 +450,30 @@
   </si>
   <si>
     <t>石油</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UH-1%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>UH-1直升機</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/A-37%E8%9C%BB%E8%9C%93%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>A-37蜻蜓式攻擊機</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>工會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
+  </si>
+  <si>
+    <t>墮胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -2301,7 +2325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I334"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2616,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2645,7 +2669,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -2848,7 +2872,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -3399,7 +3423,7 @@
         <v>70</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -4524,10 +4548,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4553,13 +4577,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -4582,13 +4606,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -4611,13 +4635,13 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -4640,13 +4664,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -4669,13 +4693,13 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -4698,10 +4722,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4727,10 +4751,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4756,10 +4780,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4785,13 +4809,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -4814,10 +4838,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4843,10 +4867,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4872,10 +4896,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4901,10 +4925,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4930,13 +4954,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4959,13 +4983,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -4988,10 +5012,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5017,13 +5041,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -5046,10 +5070,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5075,13 +5099,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5139,7 +5163,7 @@
         <v>186</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -5220,10 +5244,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5249,10 +5273,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5278,13 +5302,13 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -5307,13 +5331,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -5336,10 +5360,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5365,10 +5389,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5394,10 +5418,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5423,13 +5447,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5452,13 +5476,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5481,13 +5505,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5510,10 +5534,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5539,10 +5563,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5568,13 +5592,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -5597,10 +5621,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5626,10 +5650,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5655,10 +5679,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5684,10 +5708,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5713,10 +5737,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5742,10 +5766,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5771,13 +5795,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5800,10 +5824,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5829,10 +5853,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5858,13 +5882,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5887,13 +5911,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5916,10 +5940,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5945,10 +5969,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5974,10 +5998,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6003,13 +6027,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -6032,13 +6056,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -6067,7 +6091,7 @@
         <v>244</v>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6125,7 +6149,7 @@
         <v>248</v>
       </c>
       <c r="G132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6154,7 +6178,7 @@
         <v>250</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6177,13 +6201,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -6206,13 +6230,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6235,13 +6259,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6264,13 +6288,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -6293,13 +6317,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6322,10 +6346,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6351,10 +6375,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6380,13 +6404,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6409,10 +6433,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6438,13 +6462,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6467,13 +6491,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6496,13 +6520,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6525,13 +6549,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6554,13 +6578,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6583,13 +6607,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6612,10 +6636,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6641,13 +6665,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6670,10 +6694,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6699,13 +6723,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6728,13 +6752,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6757,13 +6781,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6786,10 +6810,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -6815,10 +6839,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6844,13 +6868,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6873,10 +6897,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6902,10 +6926,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6931,13 +6955,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6960,13 +6984,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6989,10 +7013,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7018,13 +7042,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7047,10 +7071,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7076,13 +7100,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7105,13 +7129,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7134,10 +7158,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7163,10 +7187,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7192,10 +7216,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7221,10 +7245,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7250,10 +7274,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7279,10 +7303,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7308,10 +7332,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7337,10 +7361,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7366,10 +7390,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7395,10 +7419,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7424,10 +7448,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7453,10 +7477,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7482,10 +7506,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7511,10 +7535,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7540,10 +7564,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7569,10 +7593,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7598,10 +7622,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7627,10 +7651,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7656,13 +7680,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7685,13 +7709,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7714,10 +7738,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7743,13 +7767,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7772,10 +7796,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7801,13 +7825,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7830,13 +7854,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7859,10 +7883,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7888,13 +7912,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7917,13 +7941,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7946,10 +7970,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7975,10 +7999,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8004,10 +8028,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8033,10 +8057,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8062,13 +8086,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8091,10 +8115,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8120,10 +8144,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8149,10 +8173,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8178,10 +8202,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8207,10 +8231,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8236,10 +8260,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8265,10 +8289,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8294,10 +8318,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8323,10 +8347,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8352,13 +8376,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8381,10 +8405,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8410,10 +8434,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8439,13 +8463,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8468,10 +8492,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8497,13 +8521,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8526,13 +8550,13 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -8555,10 +8579,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8584,10 +8608,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8613,10 +8637,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8642,13 +8666,13 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -8671,13 +8695,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8700,10 +8724,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8729,13 +8753,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8758,10 +8782,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8787,13 +8811,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8816,10 +8840,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8845,10 +8869,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8874,10 +8898,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8903,13 +8927,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8932,10 +8956,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8961,13 +8985,13 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -8990,10 +9014,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9019,10 +9043,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9048,13 +9072,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9077,10 +9101,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9106,13 +9130,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9135,10 +9159,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9164,10 +9188,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9193,10 +9217,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9222,10 +9246,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9251,10 +9275,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9280,10 +9304,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9309,10 +9333,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9338,10 +9362,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9367,10 +9391,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9396,10 +9420,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9425,10 +9449,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9454,10 +9478,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9483,10 +9507,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9512,10 +9536,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9541,10 +9565,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9570,13 +9594,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9599,10 +9623,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9628,10 +9652,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9657,10 +9681,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9686,10 +9710,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9715,13 +9739,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9744,10 +9768,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9773,10 +9797,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9802,10 +9826,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9831,10 +9855,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9860,13 +9884,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -9889,13 +9913,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -9918,10 +9942,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9947,10 +9971,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9976,10 +10000,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>273</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>274</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10005,13 +10029,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>277</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>278</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10034,10 +10058,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10063,10 +10087,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10092,13 +10116,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10121,10 +10145,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>281</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>282</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10150,10 +10174,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>285</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>286</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10179,13 +10203,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F272" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10208,10 +10232,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F273" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10237,13 +10261,13 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F274" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -10266,10 +10290,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10295,10 +10319,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10324,10 +10348,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>301</v>
+        <v>531</v>
       </c>
       <c r="F277" t="s">
-        <v>302</v>
+        <v>532</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10469,13 +10493,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>309</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>310</v>
       </c>
       <c r="G282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -10498,10 +10522,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10527,10 +10551,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10556,10 +10580,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10585,10 +10609,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10614,13 +10638,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -10643,10 +10667,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10672,10 +10696,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10701,10 +10725,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10730,10 +10754,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10759,10 +10783,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10788,10 +10812,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10817,10 +10841,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10846,10 +10870,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10875,10 +10899,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10904,10 +10928,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10933,10 +10957,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10962,10 +10986,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10991,10 +11015,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11020,10 +11044,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11049,10 +11073,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11078,10 +11102,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11107,10 +11131,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11136,10 +11160,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11165,10 +11189,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11194,13 +11218,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11223,10 +11247,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11252,10 +11276,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11281,13 +11305,13 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -11310,10 +11334,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11339,13 +11363,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -11368,13 +11392,13 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -11397,10 +11421,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11426,13 +11450,13 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -11455,10 +11479,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11484,10 +11508,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11513,13 +11537,13 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
@@ -11542,13 +11566,13 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319" t="s">
         <v>4</v>
@@ -11571,10 +11595,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11600,10 +11624,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11629,10 +11653,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11658,10 +11682,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11687,13 +11711,13 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -11716,10 +11740,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11745,10 +11769,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11774,10 +11798,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11803,13 +11827,13 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -11832,10 +11856,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11861,10 +11885,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11890,10 +11914,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11919,10 +11943,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11948,13 +11972,13 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H333" t="s">
         <v>4</v>
@@ -11980,15 +12004,160 @@
         <v>643</v>
       </c>
       <c r="F334" t="s">
+        <v>644</v>
+      </c>
+      <c r="G334" t="n">
+        <v>1</v>
+      </c>
+      <c r="H334" t="s">
+        <v>4</v>
+      </c>
+      <c r="I334" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>334</v>
+      </c>
+      <c r="E335" t="s">
         <v>645</v>
       </c>
-      <c r="G334" t="n">
-        <v>1</v>
-      </c>
-      <c r="H334" t="s">
-        <v>4</v>
-      </c>
-      <c r="I334" t="n">
+      <c r="F335" t="s">
+        <v>646</v>
+      </c>
+      <c r="G335" t="n">
+        <v>1</v>
+      </c>
+      <c r="H335" t="s">
+        <v>4</v>
+      </c>
+      <c r="I335" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>335</v>
+      </c>
+      <c r="E336" t="s">
+        <v>647</v>
+      </c>
+      <c r="F336" t="s">
+        <v>648</v>
+      </c>
+      <c r="G336" t="n">
+        <v>1</v>
+      </c>
+      <c r="H336" t="s">
+        <v>4</v>
+      </c>
+      <c r="I336" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>336</v>
+      </c>
+      <c r="E337" t="s">
+        <v>649</v>
+      </c>
+      <c r="F337" t="s">
+        <v>650</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1</v>
+      </c>
+      <c r="H337" t="s">
+        <v>4</v>
+      </c>
+      <c r="I337" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>337</v>
+      </c>
+      <c r="E338" t="s">
+        <v>651</v>
+      </c>
+      <c r="F338" t="s">
+        <v>652</v>
+      </c>
+      <c r="G338" t="n">
+        <v>17</v>
+      </c>
+      <c r="H338" t="s">
+        <v>4</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1</v>
+      </c>
+      <c r="D339" t="n">
+        <v>338</v>
+      </c>
+      <c r="E339" t="s">
+        <v>651</v>
+      </c>
+      <c r="F339" t="s">
+        <v>653</v>
+      </c>
+      <c r="G339" t="n">
+        <v>1</v>
+      </c>
+      <c r="H339" t="s">
+        <v>4</v>
+      </c>
+      <c r="I339" t="n">
         <v>3</v>
       </c>
     </row>
